--- a/extrato_app/media/conta_virtual_032025.xlsx
+++ b/extrato_app/media/conta_virtual_032025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="165">
   <si>
     <t>cia</t>
   </si>
@@ -37,433 +37,478 @@
     <t>total_as</t>
   </si>
   <si>
-    <t>Allianz</t>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>JPF Corretora</t>
+  </si>
+  <si>
+    <t>Smile Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Mineiros</t>
+  </si>
+  <si>
+    <t>Ama Federal Corretora</t>
+  </si>
+  <si>
+    <t>JFW Corretora</t>
+  </si>
+  <si>
+    <t>Rating Administradora</t>
+  </si>
+  <si>
+    <t>Magui Corretora</t>
+  </si>
+  <si>
+    <t>Berta Corretora</t>
+  </si>
+  <si>
+    <t>Religare Corretora</t>
+  </si>
+  <si>
+    <t>Sfera Corretora</t>
+  </si>
+  <si>
+    <t>Condor Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Jatai</t>
+  </si>
+  <si>
+    <t>Bonacina Corretora</t>
+  </si>
+  <si>
+    <t>Marconseg Corretora</t>
+  </si>
+  <si>
+    <t>Xavier Corretora</t>
+  </si>
+  <si>
+    <t>Vesuvio Corretora</t>
+  </si>
+  <si>
+    <t>Auditoria Corretora</t>
+  </si>
+  <si>
+    <t>Jaseg Adm. E Cor. Seguros</t>
+  </si>
+  <si>
+    <t>Amparo Corretora</t>
+  </si>
+  <si>
+    <t>Amaf Corretora</t>
+  </si>
+  <si>
+    <t>Menegon Administradora</t>
+  </si>
+  <si>
+    <t>Objetiva Corretora</t>
+  </si>
+  <si>
+    <t>Preview Corretora</t>
+  </si>
+  <si>
+    <t>MB Administradora</t>
+  </si>
+  <si>
+    <t>Esseg Caiaponia</t>
+  </si>
+  <si>
+    <t>TopSeguro Corretora</t>
+  </si>
+  <si>
+    <t>Best Sul Corretora</t>
+  </si>
+  <si>
+    <t>Oslo Corretora</t>
+  </si>
+  <si>
+    <t>Dirnar Corretora</t>
   </si>
   <si>
     <t>Canada-Fus Corretora</t>
   </si>
   <si>
+    <t>Manica Corretora</t>
+  </si>
+  <si>
+    <t>Humber Adm</t>
+  </si>
+  <si>
+    <t>AutoSeguros Corretora</t>
+  </si>
+  <si>
+    <t>CF Ribas</t>
+  </si>
+  <si>
+    <t>Modelo Corretora</t>
+  </si>
+  <si>
+    <t>365 Adm e Corretora</t>
+  </si>
+  <si>
+    <t>Xangai Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Santa Helena</t>
+  </si>
+  <si>
+    <t>Vedere Corretora</t>
+  </si>
+  <si>
+    <t>Arconorte Corretora</t>
+  </si>
+  <si>
+    <t>Miller Torres Corretora</t>
+  </si>
+  <si>
+    <t>Zanette Corretora</t>
+  </si>
+  <si>
+    <t>Renova Corretora</t>
+  </si>
+  <si>
+    <t>Krsul Corretora</t>
+  </si>
+  <si>
+    <t>Local do Seguro Corretora</t>
+  </si>
+  <si>
+    <t>ST Administradora</t>
+  </si>
+  <si>
+    <t>B J 3 Corretora</t>
+  </si>
+  <si>
+    <t>Oz Corretora</t>
+  </si>
+  <si>
+    <t>Folle Corretora</t>
+  </si>
+  <si>
+    <t>Bom Jesus Adm e Cor</t>
+  </si>
+  <si>
+    <t>WB Corretora</t>
+  </si>
+  <si>
+    <t>Santa Izabel Corretora</t>
+  </si>
+  <si>
+    <t>Sinosseg Corretora</t>
+  </si>
+  <si>
+    <t>Temacorr Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Corretora de Seguros</t>
+  </si>
+  <si>
+    <t>VL Grillaud Corretora</t>
+  </si>
+  <si>
+    <t>Jandacor Corretora</t>
+  </si>
+  <si>
+    <t>RF Corretora</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Raiz Corretora</t>
+  </si>
+  <si>
+    <t>Solucred Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Goiatuba</t>
+  </si>
+  <si>
+    <t>Iguaçu Corretora</t>
+  </si>
+  <si>
+    <t>Duo Corretora</t>
+  </si>
+  <si>
+    <t>Opção Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Quirinopolis</t>
+  </si>
+  <si>
+    <t>JHS Corretora</t>
+  </si>
+  <si>
+    <t>HF Side</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Lider Corretora</t>
+  </si>
+  <si>
+    <t>Viva Norte Corretora</t>
+  </si>
+  <si>
+    <t>Nova Sul Corretora</t>
+  </si>
+  <si>
+    <t>Reck Corretora</t>
+  </si>
+  <si>
+    <t>Futura Corretora</t>
+  </si>
+  <si>
+    <t>Cauduro Corretora</t>
+  </si>
+  <si>
+    <t>III Milenio Corretora</t>
+  </si>
+  <si>
+    <t>Celeste Corretora</t>
+  </si>
+  <si>
+    <t>WB Rinopolis</t>
+  </si>
+  <si>
+    <t>Claudio Balsano Consultoria</t>
+  </si>
+  <si>
+    <t>Arruda ADM</t>
+  </si>
+  <si>
+    <t>Mega Dimensão</t>
+  </si>
+  <si>
+    <t>Perfil Corretora</t>
+  </si>
+  <si>
+    <t>Seguro.Com Corretora</t>
+  </si>
+  <si>
+    <t>Somensi Cauduro Corretora</t>
+  </si>
+  <si>
+    <t>Docseg Corretora</t>
+  </si>
+  <si>
+    <t>Radar Corretora</t>
+  </si>
+  <si>
+    <t>Plus Corretora</t>
+  </si>
+  <si>
+    <t>Alvarez Corretora</t>
+  </si>
+  <si>
+    <t>Tersegmais Corretora de Seguros LTDA</t>
+  </si>
+  <si>
+    <t>Fox Corretora</t>
+  </si>
+  <si>
+    <t>Ben Hur Corretora</t>
+  </si>
+  <si>
+    <t>Portilho Corretora</t>
+  </si>
+  <si>
+    <t>Centro Sul Corretora</t>
+  </si>
+  <si>
+    <t>Dupla Corretora</t>
+  </si>
+  <si>
+    <t>TIB</t>
+  </si>
+  <si>
+    <t>Sfera On Corretora</t>
+  </si>
+  <si>
+    <t>Eulalio Corretora</t>
+  </si>
+  <si>
+    <t>Strela Sigma Corretora</t>
+  </si>
+  <si>
+    <t>JB Ribas</t>
+  </si>
+  <si>
+    <t>Eickhoff Corretora</t>
+  </si>
+  <si>
+    <t>Mereges Corretora</t>
+  </si>
+  <si>
+    <t>Emilio Nunes Corretora</t>
+  </si>
+  <si>
+    <t>PBS Corretora</t>
+  </si>
+  <si>
+    <t>Accords Corretora</t>
+  </si>
+  <si>
+    <t>WorldFast Corretora</t>
+  </si>
+  <si>
+    <t>Chiarelli Corretora</t>
+  </si>
+  <si>
+    <t>Competence Corretora</t>
+  </si>
+  <si>
+    <t>Nova Suprema Corretora</t>
+  </si>
+  <si>
+    <t>Agamo Corretora</t>
+  </si>
+  <si>
+    <t>Casdan Consultoria</t>
+  </si>
+  <si>
+    <t>Zagonell Corretora</t>
+  </si>
+  <si>
+    <t>Segurart Corretora</t>
+  </si>
+  <si>
+    <t>Amani Corretora</t>
+  </si>
+  <si>
+    <t>ProSeguros Corretora</t>
+  </si>
+  <si>
+    <t>Futurseg Corretora</t>
+  </si>
+  <si>
+    <t>Agro Marista Corretora</t>
+  </si>
+  <si>
+    <t>Anjo Azul Corretora</t>
+  </si>
+  <si>
+    <t>Seguros Luciano Adm</t>
+  </si>
+  <si>
+    <t>Pallestra Corretora</t>
+  </si>
+  <si>
+    <t>Douraseg Corretora</t>
+  </si>
+  <si>
+    <t>Right Corretora E Assessoria de Seguros</t>
+  </si>
+  <si>
+    <t>Completa Corretora</t>
+  </si>
+  <si>
+    <t>W.B.T Corretora</t>
+  </si>
+  <si>
+    <t>Real Brasil Corretora</t>
+  </si>
+  <si>
+    <t>Delta Corretora</t>
+  </si>
+  <si>
     <t>Hora H Corretora</t>
   </si>
   <si>
-    <t>Mega Dimensão</t>
-  </si>
-  <si>
-    <t>HF Side</t>
-  </si>
-  <si>
-    <t>Claudio Balsano Consultoria</t>
-  </si>
-  <si>
-    <t>Santa Izabel Corretora</t>
-  </si>
-  <si>
-    <t>Sfera On Corretora</t>
-  </si>
-  <si>
-    <t>Solucred Corretora</t>
-  </si>
-  <si>
-    <t>Sfera Corretora</t>
-  </si>
-  <si>
-    <t>Portilho Corretora</t>
-  </si>
-  <si>
-    <t>III Milenio Corretora</t>
-  </si>
-  <si>
-    <t>Amparo Corretora</t>
-  </si>
-  <si>
-    <t>Pallestra Corretora</t>
-  </si>
-  <si>
-    <t>Futurseg Corretora</t>
-  </si>
-  <si>
-    <t>WorldFast Corretora</t>
-  </si>
-  <si>
-    <t>ST Administradora</t>
-  </si>
-  <si>
-    <t>Accords Corretora</t>
+    <t>Jatai Corretora</t>
+  </si>
+  <si>
+    <t>Sk Corretora</t>
+  </si>
+  <si>
+    <t>WA Corretora</t>
+  </si>
+  <si>
+    <t>Revitha Corretora</t>
+  </si>
+  <si>
+    <t>Bricio Corretora</t>
+  </si>
+  <si>
+    <t>Comvida Corretora</t>
   </si>
   <si>
     <t>Passarin Corretora</t>
   </si>
   <si>
+    <t>Fenix Corretora</t>
+  </si>
+  <si>
+    <t>Crife Corretora</t>
+  </si>
+  <si>
+    <t>Amazonia Corretora</t>
+  </si>
+  <si>
+    <t>Piaseg Corretora</t>
+  </si>
+  <si>
+    <t>Patria Corretora</t>
+  </si>
+  <si>
+    <t>Bee Corretora</t>
+  </si>
+  <si>
+    <t>Vitoria da Conquista Adm. E Corretora</t>
+  </si>
+  <si>
+    <t>Paratus Corretora</t>
+  </si>
+  <si>
+    <t>Pouso Seguro Corretora</t>
+  </si>
+  <si>
+    <t>CarvalhoSeg Corretora</t>
+  </si>
+  <si>
+    <t>Ideia Ponto Com Corretora</t>
+  </si>
+  <si>
+    <t>Marista Corretora</t>
+  </si>
+  <si>
+    <t>Lima e Moreira Corretora</t>
+  </si>
+  <si>
+    <t>GCG Germana</t>
+  </si>
+  <si>
     <t>Do Futuro Corretora</t>
   </si>
   <si>
-    <t>Raiz Corretora</t>
-  </si>
-  <si>
-    <t>Real Brasil Corretora</t>
-  </si>
-  <si>
-    <t>JHS Corretora</t>
-  </si>
-  <si>
-    <t>Reolon Corretora</t>
-  </si>
-  <si>
-    <t>Folle Corretora</t>
-  </si>
-  <si>
-    <t>Magui Corretora</t>
-  </si>
-  <si>
-    <t>Auditoria Corretora</t>
-  </si>
-  <si>
-    <t>Reck Corretora</t>
-  </si>
-  <si>
-    <t>Chiarelli Corretora</t>
-  </si>
-  <si>
-    <t>Crife Corretora</t>
-  </si>
-  <si>
-    <t>Amazonia Corretora</t>
-  </si>
-  <si>
-    <t>Kelli Corretora</t>
-  </si>
-  <si>
-    <t>Celeste Corretora</t>
-  </si>
-  <si>
-    <t>Lessa Corretora</t>
-  </si>
-  <si>
-    <t>Arconorte Corretora</t>
-  </si>
-  <si>
-    <t>Vesuvio Corretora</t>
-  </si>
-  <si>
-    <t>Bricio Corretora</t>
-  </si>
-  <si>
-    <t>Best Sul Corretora</t>
-  </si>
-  <si>
-    <t>Perfil Corretora</t>
-  </si>
-  <si>
-    <t>JFW Corretora</t>
-  </si>
-  <si>
-    <t>Eulalio Corretora</t>
-  </si>
-  <si>
-    <t>RF Corretora</t>
-  </si>
-  <si>
-    <t>Rating Administradora</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>Esseg Quirinopolis</t>
-  </si>
-  <si>
-    <t>Oslo Corretora</t>
-  </si>
-  <si>
-    <t>Humber Adm</t>
-  </si>
-  <si>
-    <t>Segurart Corretora</t>
-  </si>
-  <si>
-    <t>Opção Corretora</t>
+    <t>Master Voigt Corretora</t>
+  </si>
+  <si>
+    <t>Casa Verde Corretora</t>
   </si>
   <si>
     <t>Andre Nava Corretora</t>
   </si>
   <si>
-    <t>CarvalhoSeg Corretora</t>
-  </si>
-  <si>
-    <t>Berta Corretora</t>
-  </si>
-  <si>
-    <t>WA Corretora</t>
-  </si>
-  <si>
-    <t>Eickhoff Corretora</t>
-  </si>
-  <si>
-    <t>Douraseg Corretora</t>
-  </si>
-  <si>
-    <t>Liber Corretora</t>
-  </si>
-  <si>
-    <t>Bagueira Corretora</t>
-  </si>
-  <si>
-    <t>Casa Verde Corretora</t>
-  </si>
-  <si>
-    <t>Temacorr Corretora</t>
-  </si>
-  <si>
-    <t>Plus Corretora</t>
-  </si>
-  <si>
-    <t>Vitoria da Conquista Adm. E Corretora</t>
-  </si>
-  <si>
-    <t>Menegon Administradora</t>
-  </si>
-  <si>
-    <t>Sinosseg Corretora</t>
-  </si>
-  <si>
-    <t>Duo Corretora</t>
-  </si>
-  <si>
-    <t>Anjo Azul Corretora</t>
-  </si>
-  <si>
-    <t>Fenix Corretora</t>
-  </si>
-  <si>
-    <t>Xavier Corretora</t>
-  </si>
-  <si>
-    <t>B J 3 Corretora</t>
-  </si>
-  <si>
-    <t>Objetiva Corretora</t>
-  </si>
-  <si>
-    <t>W.B.T Corretora</t>
-  </si>
-  <si>
-    <t>Cauduro Corretora</t>
-  </si>
-  <si>
-    <t>Zagonell Corretora</t>
-  </si>
-  <si>
-    <t>Tersegmais Corretora de Seguros LTDA</t>
-  </si>
-  <si>
-    <t>MB Nortseg</t>
+    <t>Super Seg Corretora</t>
+  </si>
+  <si>
+    <t>Lider Premier Corretora</t>
+  </si>
+  <si>
+    <t>Esseg Cacu</t>
+  </si>
+  <si>
+    <t>Rieper Corretora</t>
   </si>
   <si>
     <t>Marconcini Corretora</t>
   </si>
   <si>
-    <t>Radar Corretora</t>
-  </si>
-  <si>
     <t>Corrente Corretora</t>
-  </si>
-  <si>
-    <t>Patria Corretora</t>
-  </si>
-  <si>
-    <t>Agro Marista Corretora</t>
-  </si>
-  <si>
-    <t>Somensi Cauduro Corretora</t>
-  </si>
-  <si>
-    <t>Lider Premier Corretora</t>
-  </si>
-  <si>
-    <t>WBC Corretora</t>
-  </si>
-  <si>
-    <t>Religare Corretora</t>
-  </si>
-  <si>
-    <t>Revitha Corretora</t>
-  </si>
-  <si>
-    <t>Oz Corretora</t>
-  </si>
-  <si>
-    <t>Novak Corretora</t>
-  </si>
-  <si>
-    <t>Seguro.Com Corretora</t>
-  </si>
-  <si>
-    <t>Rieper Corretora</t>
-  </si>
-  <si>
-    <t>Piaseg Corretora</t>
-  </si>
-  <si>
-    <t>Nova Sul Corretora</t>
-  </si>
-  <si>
-    <t>Marconseg Corretora</t>
-  </si>
-  <si>
-    <t>Dirnar Corretora</t>
-  </si>
-  <si>
-    <t>Ben Hur Corretora</t>
-  </si>
-  <si>
-    <t>Krsul Corretora</t>
-  </si>
-  <si>
-    <t>Viva Norte Corretora</t>
-  </si>
-  <si>
-    <t>Smile Corretora</t>
-  </si>
-  <si>
-    <t>Agamo Corretora</t>
-  </si>
-  <si>
-    <t>Iguaçu Corretora</t>
-  </si>
-  <si>
-    <t>AutoSeguros Corretora</t>
-  </si>
-  <si>
-    <t>Seguros Luciano Adm</t>
-  </si>
-  <si>
-    <t>Delta Corretora</t>
-  </si>
-  <si>
-    <t>VL Grillaud Corretora</t>
-  </si>
-  <si>
-    <t>Jatai Corretora</t>
-  </si>
-  <si>
-    <t>WB Rinopolis</t>
-  </si>
-  <si>
-    <t>Lider Corretora</t>
-  </si>
-  <si>
-    <t>Modelo Corretora</t>
-  </si>
-  <si>
-    <t>Futura Corretora</t>
-  </si>
-  <si>
-    <t>PBS Corretora</t>
-  </si>
-  <si>
-    <t>Renova Corretora</t>
-  </si>
-  <si>
-    <t>Miller Torres Corretora</t>
-  </si>
-  <si>
-    <t>Fox Corretora</t>
-  </si>
-  <si>
-    <t>Comvida Corretora</t>
-  </si>
-  <si>
-    <t>Emilio Nunes Corretora</t>
-  </si>
-  <si>
-    <t>Nova Suprema Corretora</t>
-  </si>
-  <si>
-    <t>Vedere Corretora</t>
-  </si>
-  <si>
-    <t>Zanette Corretora</t>
-  </si>
-  <si>
-    <t>Bonacina Corretora</t>
-  </si>
-  <si>
-    <t>Casdan Consultoria</t>
-  </si>
-  <si>
-    <t>Condor Corretora</t>
-  </si>
-  <si>
-    <t>GCG Germana</t>
-  </si>
-  <si>
-    <t>Resulta Corretora</t>
-  </si>
-  <si>
-    <t>Arruda ADM</t>
-  </si>
-  <si>
-    <t>Esseg Morrinhos</t>
-  </si>
-  <si>
-    <t>Alvarez Corretora</t>
-  </si>
-  <si>
-    <t>Mereges Corretora</t>
-  </si>
-  <si>
-    <t>Manica Corretora</t>
-  </si>
-  <si>
-    <t>Strela Sigma Corretora</t>
-  </si>
-  <si>
-    <t>Esseg Santa Helena</t>
-  </si>
-  <si>
-    <t>ProSeguros Corretora</t>
-  </si>
-  <si>
-    <t>Flexxa Corretora</t>
-  </si>
-  <si>
-    <t>Jandacor Corretora</t>
-  </si>
-  <si>
-    <t>Esseg Jatai</t>
-  </si>
-  <si>
-    <t>Jaseg Adm. E Cor. Seguros</t>
-  </si>
-  <si>
-    <t>TIB</t>
-  </si>
-  <si>
-    <t>Local do Seguro Corretora</t>
-  </si>
-  <si>
-    <t>Bom Jesus Adm e Cor</t>
-  </si>
-  <si>
-    <t>Preview Corretora</t>
-  </si>
-  <si>
-    <t>Esseg Corretora de Seguros</t>
-  </si>
-  <si>
-    <t>Marista Corretora</t>
-  </si>
-  <si>
-    <t>Esseg Mineiros</t>
-  </si>
-  <si>
-    <t>CF Ribas</t>
-  </si>
-  <si>
-    <t>Paratus Corretora</t>
-  </si>
-  <si>
-    <t>Competence Corretora</t>
   </si>
 </sst>
 </file>
@@ -821,7 +866,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -855,22 +900,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>101862.5309333333</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2012.688200493333</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1006.344100246667</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>36.84362726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -878,22 +923,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>69741.33591099999</v>
+        <v>144975.041183</v>
       </c>
       <c r="E3">
-        <v>1351.535142573333</v>
+        <v>1449.75041183</v>
       </c>
       <c r="F3">
-        <v>675.7675712866666</v>
+        <v>1449.75041183</v>
       </c>
       <c r="G3">
-        <v>64.93736346999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -901,22 +946,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>123489.5017866667</v>
+        <v>5926.230807</v>
       </c>
       <c r="E4">
-        <v>2466.440615073334</v>
+        <v>59.26230807</v>
       </c>
       <c r="F4">
-        <v>1233.220307536667</v>
+        <v>59.26230807</v>
       </c>
       <c r="G4">
-        <v>5.02413099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -924,22 +969,22 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>180098.4743346666</v>
+        <v>1475.526283</v>
       </c>
       <c r="E5">
-        <v>3190.392174206667</v>
+        <v>14.75526283</v>
       </c>
       <c r="F5">
-        <v>1595.196087103334</v>
+        <v>14.75526283</v>
       </c>
       <c r="G5">
-        <v>617.3659687299998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -947,19 +992,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>100401.0795966667</v>
+        <v>30894.374378</v>
       </c>
       <c r="E6">
-        <v>2008.021591933333</v>
+        <v>308.94374378</v>
       </c>
       <c r="F6">
-        <v>1004.010795966667</v>
+        <v>308.94374378</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -970,22 +1015,22 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>197119.050932</v>
+        <v>63915.668264</v>
       </c>
       <c r="E7">
-        <v>2657.97228038</v>
+        <v>639.15668264</v>
       </c>
       <c r="F7">
-        <v>1328.98614019</v>
+        <v>639.15668264</v>
       </c>
       <c r="G7">
-        <v>1926.61310739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -993,19 +1038,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8">
-        <v>73235.02000766667</v>
+        <v>10931.825856</v>
       </c>
       <c r="E8">
-        <v>1464.700400153333</v>
+        <v>109.31825856</v>
       </c>
       <c r="F8">
-        <v>732.3502000766666</v>
+        <v>109.31825856</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1016,19 +1061,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9">
-        <v>49780.294135</v>
+        <v>65305.307144</v>
       </c>
       <c r="E9">
-        <v>995.6058826999999</v>
+        <v>653.0530714399999</v>
       </c>
       <c r="F9">
-        <v>497.80294135</v>
+        <v>653.0530714399999</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1039,22 +1084,22 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10">
-        <v>118889.379854</v>
+        <v>27338.249883</v>
       </c>
       <c r="E10">
-        <v>2302.620074253334</v>
+        <v>273.38249883</v>
       </c>
       <c r="F10">
-        <v>1151.310037126667</v>
+        <v>273.38249883</v>
       </c>
       <c r="G10">
-        <v>112.75128424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1062,19 +1107,19 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>255032.6667333333</v>
+        <v>91811.70375300001</v>
       </c>
       <c r="E11">
-        <v>5100.653334666668</v>
+        <v>918.1170375299999</v>
       </c>
       <c r="F11">
-        <v>2550.326667333334</v>
+        <v>918.1170375299999</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1085,19 +1130,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>53361.163526</v>
+        <v>173830.31351</v>
       </c>
       <c r="E12">
-        <v>1067.22327052</v>
+        <v>1738.3031351</v>
       </c>
       <c r="F12">
-        <v>533.6116352600001</v>
+        <v>1738.3031351</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1108,22 +1153,22 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13">
-        <v>68292.429221</v>
+        <v>58585.824143</v>
       </c>
       <c r="E13">
-        <v>1359.78952008</v>
+        <v>585.85824143</v>
       </c>
       <c r="F13">
-        <v>679.8947600399999</v>
+        <v>585.85824143</v>
       </c>
       <c r="G13">
-        <v>9.08859651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1131,22 +1176,22 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14">
-        <v>123325.1669153333</v>
+        <v>77587.20577299999</v>
       </c>
       <c r="E14">
-        <v>2464.358203726667</v>
+        <v>775.8720577299999</v>
       </c>
       <c r="F14">
-        <v>1232.179101863334</v>
+        <v>775.8720577299999</v>
       </c>
       <c r="G14">
-        <v>3.21770187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1154,19 +1199,19 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15">
-        <v>49599.65122300001</v>
+        <v>33399.58447</v>
       </c>
       <c r="E15">
-        <v>991.9930244600001</v>
+        <v>333.9958447</v>
       </c>
       <c r="F15">
-        <v>495.9965122300001</v>
+        <v>333.9958447</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1177,22 +1222,22 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16">
-        <v>100073.0370863333</v>
+        <v>61502.135737</v>
       </c>
       <c r="E16">
-        <v>140.7258463066667</v>
+        <v>615.02135737</v>
       </c>
       <c r="F16">
-        <v>70.36292315333334</v>
+        <v>615.02135737</v>
       </c>
       <c r="G16">
-        <v>2791.10234313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1200,22 +1245,22 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
       </c>
       <c r="D17">
-        <v>61460.61464633334</v>
+        <v>9251.713849</v>
       </c>
       <c r="E17">
-        <v>638.4096135133334</v>
+        <v>92.51713848999999</v>
       </c>
       <c r="F17">
-        <v>319.2048067566667</v>
+        <v>92.51713848999999</v>
       </c>
       <c r="G17">
-        <v>886.20401912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1223,19 +1268,19 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18">
-        <v>90443.13907266664</v>
+        <v>63196.723149</v>
       </c>
       <c r="E18">
-        <v>1808.862781453333</v>
+        <v>631.9672314899999</v>
       </c>
       <c r="F18">
-        <v>904.4313907266667</v>
+        <v>631.9672314899999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1246,19 +1291,19 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19">
-        <v>93756.80748966669</v>
+        <v>108520.181231</v>
       </c>
       <c r="E19">
-        <v>1875.136149793334</v>
+        <v>1085.20181231</v>
       </c>
       <c r="F19">
-        <v>937.5680748966669</v>
+        <v>1085.20181231</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1269,19 +1314,19 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20">
-        <v>3365.101468333333</v>
+        <v>74439.28769899999</v>
       </c>
       <c r="E20">
-        <v>67.30202936666667</v>
+        <v>744.3928769899999</v>
       </c>
       <c r="F20">
-        <v>33.65101468333334</v>
+        <v>744.3928769899999</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1292,22 +1337,22 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>56955.20479600001</v>
+        <v>212460.34432</v>
       </c>
       <c r="E21">
-        <v>1135.930300313333</v>
+        <v>2124.6034432</v>
       </c>
       <c r="F21">
-        <v>567.9651501566666</v>
+        <v>2124.6034432</v>
       </c>
       <c r="G21">
-        <v>4.760693409999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1315,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22">
-        <v>26890.70459466666</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>537.8140918933333</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>268.9070459466666</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1338,22 +1383,22 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23">
-        <v>28607.439491</v>
+        <v>42467.943189</v>
       </c>
       <c r="E23">
-        <v>531.61703644</v>
+        <v>424.67943189</v>
       </c>
       <c r="F23">
-        <v>265.80851822</v>
+        <v>424.67943189</v>
       </c>
       <c r="G23">
-        <v>60.79763006999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1361,22 +1406,22 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
       <c r="D24">
-        <v>436992.1394010001</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2532.074206433333</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1266.037103216666</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>9311.65287238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1384,19 +1429,19 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25">
-        <v>69060.16159699998</v>
+        <v>81061.302973</v>
       </c>
       <c r="E25">
-        <v>1381.20323194</v>
+        <v>810.61302973</v>
       </c>
       <c r="F25">
-        <v>690.60161597</v>
+        <v>810.61302973</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1407,22 +1452,22 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26">
-        <v>359884.5869673335</v>
+        <v>7006.09602</v>
       </c>
       <c r="E26">
-        <v>1951.99719992</v>
+        <v>70.0609602</v>
       </c>
       <c r="F26">
-        <v>975.9985999600002</v>
+        <v>70.0609602</v>
       </c>
       <c r="G26">
-        <v>7868.54180914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1430,19 +1475,19 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27">
-        <v>33075.84263366667</v>
+        <v>56787.978842</v>
       </c>
       <c r="E27">
-        <v>661.5168526733333</v>
+        <v>567.87978842</v>
       </c>
       <c r="F27">
-        <v>330.7584263366667</v>
+        <v>567.87978842</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1453,22 +1498,22 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C28" t="s">
         <v>34</v>
       </c>
       <c r="D28">
-        <v>139440.0200233333</v>
+        <v>33483.541819</v>
       </c>
       <c r="E28">
-        <v>2784.91156</v>
+        <v>334.83541819</v>
       </c>
       <c r="F28">
-        <v>1392.45578</v>
+        <v>334.83541819</v>
       </c>
       <c r="G28">
-        <v>5.833260699999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1476,22 +1521,22 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29">
-        <v>60568.69026833333</v>
+        <v>104577.080909</v>
       </c>
       <c r="E29">
-        <v>1198.201926366667</v>
+        <v>1045.77080909</v>
       </c>
       <c r="F29">
-        <v>599.1009631833333</v>
+        <v>1045.77080909</v>
       </c>
       <c r="G29">
-        <v>19.7578185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1499,22 +1544,22 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30">
-        <v>49541.31861600001</v>
+        <v>22875.965035</v>
       </c>
       <c r="E30">
-        <v>963.1654264200001</v>
+        <v>228.75965035</v>
       </c>
       <c r="F30">
-        <v>481.5827132100001</v>
+        <v>228.75965035</v>
       </c>
       <c r="G30">
-        <v>41.49141885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1522,19 +1567,19 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
       </c>
       <c r="D31">
-        <v>393333.6328393331</v>
+        <v>79061.767029</v>
       </c>
       <c r="E31">
-        <v>7866.672656786667</v>
+        <v>790.61767029</v>
       </c>
       <c r="F31">
-        <v>3933.336328393334</v>
+        <v>790.61767029</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1545,22 +1590,22 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
       </c>
       <c r="D32">
-        <v>1579.998247666667</v>
+        <v>83744.078033</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>837.4407803299999</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>837.4407803299999</v>
       </c>
       <c r="G32">
-        <v>47.39994743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1568,19 +1613,19 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
       </c>
       <c r="D33">
-        <v>52383.93555066665</v>
+        <v>36489.600924</v>
       </c>
       <c r="E33">
-        <v>1047.678711013333</v>
+        <v>364.89600924</v>
       </c>
       <c r="F33">
-        <v>523.8393555066667</v>
+        <v>364.89600924</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1591,19 +1636,19 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34">
-        <v>35192.75175866665</v>
+        <v>12636.063538</v>
       </c>
       <c r="E34">
-        <v>703.8550351733336</v>
+        <v>126.36063538</v>
       </c>
       <c r="F34">
-        <v>351.9275175866668</v>
+        <v>126.36063538</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1614,22 +1659,22 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
       <c r="D35">
-        <v>435419.0407090001</v>
+        <v>86434.573309</v>
       </c>
       <c r="E35">
-        <v>8318.330115373332</v>
+        <v>864.34573309</v>
       </c>
       <c r="F35">
-        <v>4159.165057686666</v>
+        <v>864.34573309</v>
       </c>
       <c r="G35">
-        <v>585.07604821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1637,19 +1682,19 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36">
-        <v>4494.119668333334</v>
+        <v>198444.292172</v>
       </c>
       <c r="E36">
-        <v>89.88239336666666</v>
+        <v>1984.44292172</v>
       </c>
       <c r="F36">
-        <v>44.94119668333333</v>
+        <v>1984.44292172</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1660,22 +1705,22 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
       </c>
       <c r="D37">
-        <v>143415.418552</v>
+        <v>38139.79709399999</v>
       </c>
       <c r="E37">
-        <v>2866.439218686666</v>
+        <v>381.3979709399999</v>
       </c>
       <c r="F37">
-        <v>1433.219609343333</v>
+        <v>381.3979709399999</v>
       </c>
       <c r="G37">
-        <v>2.80372853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1683,19 +1728,19 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38">
-        <v>9208.397885666665</v>
+        <v>38715.918213</v>
       </c>
       <c r="E38">
-        <v>184.1679577133333</v>
+        <v>387.15918213</v>
       </c>
       <c r="F38">
-        <v>92.08397885666666</v>
+        <v>387.15918213</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1706,19 +1751,19 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
       </c>
       <c r="D39">
-        <v>4314.731221000001</v>
+        <v>50251.850971</v>
       </c>
       <c r="E39">
-        <v>86.29462442000002</v>
+        <v>502.51850971</v>
       </c>
       <c r="F39">
-        <v>43.14731221000001</v>
+        <v>502.51850971</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1729,19 +1774,19 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
       </c>
       <c r="D40">
-        <v>11214.28688766667</v>
+        <v>109856.743626</v>
       </c>
       <c r="E40">
-        <v>224.2857377533334</v>
+        <v>1098.56743626</v>
       </c>
       <c r="F40">
-        <v>112.1428688766667</v>
+        <v>1098.56743626</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1752,19 +1797,19 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41">
-        <v>20846.06659833333</v>
+        <v>150291.374926</v>
       </c>
       <c r="E41">
-        <v>416.9213319666667</v>
+        <v>1502.91374926</v>
       </c>
       <c r="F41">
-        <v>208.4606659833333</v>
+        <v>1502.91374926</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1775,22 +1820,22 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
       <c r="D42">
-        <v>92039.44536099999</v>
+        <v>109900.169841</v>
       </c>
       <c r="E42">
-        <v>1804.635235526667</v>
+        <v>1099.00169841</v>
       </c>
       <c r="F42">
-        <v>902.3176177633333</v>
+        <v>1099.00169841</v>
       </c>
       <c r="G42">
-        <v>54.23050754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1798,22 +1843,22 @@
         <v>7</v>
       </c>
       <c r="B43">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43">
-        <v>251833.7818333333</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>3326.928108526666</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1663.464054263333</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>2564.62129221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1821,22 +1866,22 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
       </c>
       <c r="D44">
-        <v>747022.4188179994</v>
+        <v>4694.856355</v>
       </c>
       <c r="E44">
-        <v>14783.56502514666</v>
+        <v>46.94856355</v>
       </c>
       <c r="F44">
-        <v>7391.78251257333</v>
+        <v>46.94856355</v>
       </c>
       <c r="G44">
-        <v>235.32502682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1844,19 +1889,19 @@
         <v>7</v>
       </c>
       <c r="B45">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
       </c>
       <c r="D45">
-        <v>57578.046503</v>
+        <v>7993.318641</v>
       </c>
       <c r="E45">
-        <v>1151.56093006</v>
+        <v>79.93318641</v>
       </c>
       <c r="F45">
-        <v>575.7804650300002</v>
+        <v>79.93318641</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1867,19 +1912,19 @@
         <v>7</v>
       </c>
       <c r="B46">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
       </c>
       <c r="D46">
-        <v>47086.95849566667</v>
+        <v>125931.198365</v>
       </c>
       <c r="E46">
-        <v>941.7391699133334</v>
+        <v>1259.31198365</v>
       </c>
       <c r="F46">
-        <v>470.8695849566667</v>
+        <v>1259.31198365</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1890,22 +1935,22 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
       </c>
       <c r="D47">
-        <v>9643.069892666666</v>
+        <v>51553.67239399999</v>
       </c>
       <c r="E47">
-        <v>178.30960772</v>
+        <v>515.53672394</v>
       </c>
       <c r="F47">
-        <v>89.15480385999999</v>
+        <v>515.53672394</v>
       </c>
       <c r="G47">
-        <v>21.8276852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1913,19 +1958,19 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
       </c>
       <c r="D48">
-        <v>79072.67133400001</v>
+        <v>45873.52347199999</v>
       </c>
       <c r="E48">
-        <v>1581.45342668</v>
+        <v>458.73523472</v>
       </c>
       <c r="F48">
-        <v>790.7267133399998</v>
+        <v>458.73523472</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1936,19 +1981,19 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C49" t="s">
         <v>55</v>
       </c>
       <c r="D49">
-        <v>25978.708782</v>
+        <v>79044.396543</v>
       </c>
       <c r="E49">
-        <v>519.5741756400001</v>
+        <v>790.44396543</v>
       </c>
       <c r="F49">
-        <v>259.7870878200001</v>
+        <v>790.44396543</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1959,19 +2004,19 @@
         <v>7</v>
       </c>
       <c r="B50">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
       </c>
       <c r="D50">
-        <v>43259.58679766666</v>
+        <v>85298.73652999999</v>
       </c>
       <c r="E50">
-        <v>865.1917359533331</v>
+        <v>852.9873653</v>
       </c>
       <c r="F50">
-        <v>432.5958679766666</v>
+        <v>852.9873653</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1982,19 +2027,19 @@
         <v>7</v>
       </c>
       <c r="B51">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
       </c>
       <c r="D51">
-        <v>120728.4250553333</v>
+        <v>77226.28567500001</v>
       </c>
       <c r="E51">
-        <v>2414.568501106667</v>
+        <v>772.2628567500001</v>
       </c>
       <c r="F51">
-        <v>1207.284250553333</v>
+        <v>772.2628567500001</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2005,22 +2050,22 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
       </c>
       <c r="D52">
-        <v>151042.5637253333</v>
+        <v>148996.308692</v>
       </c>
       <c r="E52">
-        <v>3005.346091226667</v>
+        <v>1489.96308692</v>
       </c>
       <c r="F52">
-        <v>1502.673045613333</v>
+        <v>1489.96308692</v>
       </c>
       <c r="G52">
-        <v>23.25777492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2028,22 +2073,22 @@
         <v>7</v>
       </c>
       <c r="B53">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53">
-        <v>99659.69097866667</v>
+        <v>145109.179936</v>
       </c>
       <c r="E53">
-        <v>1989.417880926666</v>
+        <v>1451.09179936</v>
       </c>
       <c r="F53">
-        <v>994.7089404633332</v>
+        <v>1451.09179936</v>
       </c>
       <c r="G53">
-        <v>5.663907969999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2051,22 +2096,22 @@
         <v>7</v>
       </c>
       <c r="B54">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C54" t="s">
         <v>60</v>
       </c>
       <c r="D54">
-        <v>266006.7236373334</v>
+        <v>85363.39333899999</v>
       </c>
       <c r="E54">
-        <v>5166.638176133334</v>
+        <v>853.63393339</v>
       </c>
       <c r="F54">
-        <v>2583.319088066667</v>
+        <v>853.63393339</v>
       </c>
       <c r="G54">
-        <v>230.24444492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2074,22 +2119,22 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
       </c>
       <c r="D55">
-        <v>301139.8883243333</v>
+        <v>-1281.555856</v>
       </c>
       <c r="E55">
-        <v>6008.835574746665</v>
+        <v>-12.81555856</v>
       </c>
       <c r="F55">
-        <v>3004.417787373332</v>
+        <v>-12.81555856</v>
       </c>
       <c r="G55">
-        <v>20.94328761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2097,19 +2142,19 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
       </c>
       <c r="D56">
-        <v>13375.72950833333</v>
+        <v>20419.00629300001</v>
       </c>
       <c r="E56">
-        <v>267.5145901666667</v>
+        <v>204.1900629300001</v>
       </c>
       <c r="F56">
-        <v>133.7572950833333</v>
+        <v>204.1900629300001</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2120,19 +2165,19 @@
         <v>7</v>
       </c>
       <c r="B57">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
       </c>
       <c r="D57">
-        <v>25772.34934433334</v>
+        <v>157903.507902</v>
       </c>
       <c r="E57">
-        <v>515.4469868866668</v>
+        <v>1579.03507902</v>
       </c>
       <c r="F57">
-        <v>257.7234934433334</v>
+        <v>1579.03507902</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2143,22 +2188,22 @@
         <v>7</v>
       </c>
       <c r="B58">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C58" t="s">
         <v>64</v>
       </c>
       <c r="D58">
-        <v>124489.9373583333</v>
+        <v>106783.132631</v>
       </c>
       <c r="E58">
-        <v>2475.573117846667</v>
+        <v>1067.83132631</v>
       </c>
       <c r="F58">
-        <v>1237.786558923333</v>
+        <v>1067.83132631</v>
       </c>
       <c r="G58">
-        <v>21.33844398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2166,22 +2211,22 @@
         <v>7</v>
       </c>
       <c r="B59">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
       </c>
       <c r="D59">
-        <v>424438.0842493334</v>
+        <v>136077.492243</v>
       </c>
       <c r="E59">
-        <v>8484.308335419999</v>
+        <v>1360.77492243</v>
       </c>
       <c r="F59">
-        <v>4242.154167709999</v>
+        <v>1360.77492243</v>
       </c>
       <c r="G59">
-        <v>6.68002435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2189,19 +2234,19 @@
         <v>7</v>
       </c>
       <c r="B60">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C60" t="s">
         <v>66</v>
       </c>
       <c r="D60">
-        <v>85663.00146033334</v>
+        <v>19380.637241</v>
       </c>
       <c r="E60">
-        <v>1713.260029206667</v>
+        <v>193.80637241</v>
       </c>
       <c r="F60">
-        <v>856.6300146033334</v>
+        <v>193.80637241</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2212,22 +2257,22 @@
         <v>7</v>
       </c>
       <c r="B61">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C61" t="s">
         <v>67</v>
       </c>
       <c r="D61">
-        <v>163257.913417</v>
+        <v>73922.99825400001</v>
       </c>
       <c r="E61">
-        <v>3251.371701653334</v>
+        <v>739.22998254</v>
       </c>
       <c r="F61">
-        <v>1625.685850826667</v>
+        <v>739.22998254</v>
       </c>
       <c r="G61">
-        <v>20.67985003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2235,19 +2280,19 @@
         <v>7</v>
       </c>
       <c r="B62">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
       </c>
       <c r="D62">
-        <v>23050.78825</v>
+        <v>18894.263633</v>
       </c>
       <c r="E62">
-        <v>461.015765</v>
+        <v>188.94263633</v>
       </c>
       <c r="F62">
-        <v>230.5078825</v>
+        <v>188.94263633</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2258,19 +2303,19 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C63" t="s">
         <v>69</v>
       </c>
       <c r="D63">
-        <v>65987.35039599999</v>
+        <v>4962.168833999999</v>
       </c>
       <c r="E63">
-        <v>1319.74700792</v>
+        <v>49.62168834</v>
       </c>
       <c r="F63">
-        <v>659.87350396</v>
+        <v>49.62168834</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -2281,22 +2326,22 @@
         <v>7</v>
       </c>
       <c r="B64">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C64" t="s">
         <v>70</v>
       </c>
       <c r="D64">
-        <v>49800.992802</v>
+        <v>22185.97073</v>
       </c>
       <c r="E64">
-        <v>984.4035132266667</v>
+        <v>221.8597073</v>
       </c>
       <c r="F64">
-        <v>492.2017566133334</v>
+        <v>221.8597073</v>
       </c>
       <c r="G64">
-        <v>17.42451422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2304,22 +2349,22 @@
         <v>7</v>
       </c>
       <c r="B65">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C65" t="s">
         <v>71</v>
       </c>
       <c r="D65">
-        <v>237810.1213246667</v>
+        <v>27972.272622</v>
       </c>
       <c r="E65">
-        <v>4570.754914820001</v>
+        <v>279.72272622</v>
       </c>
       <c r="F65">
-        <v>2285.37745741</v>
+        <v>279.72272622</v>
       </c>
       <c r="G65">
-        <v>278.17126751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2327,22 +2372,22 @@
         <v>7</v>
       </c>
       <c r="B66">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
       </c>
       <c r="D66">
-        <v>108776.5129436667</v>
+        <v>47845.073633</v>
       </c>
       <c r="E66">
-        <v>2143.767213513333</v>
+        <v>478.45073633</v>
       </c>
       <c r="F66">
-        <v>1071.883606756666</v>
+        <v>478.45073633</v>
       </c>
       <c r="G66">
-        <v>47.64456804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2350,19 +2395,19 @@
         <v>7</v>
       </c>
       <c r="B67">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C67" t="s">
         <v>73</v>
       </c>
       <c r="D67">
-        <v>107491.3138926667</v>
+        <v>38564.408974</v>
       </c>
       <c r="E67">
-        <v>2149.826277853333</v>
+        <v>385.64408974</v>
       </c>
       <c r="F67">
-        <v>1074.913138926667</v>
+        <v>385.64408974</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2373,19 +2418,19 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C68" t="s">
         <v>74</v>
       </c>
       <c r="D68">
-        <v>68629.88021633333</v>
+        <v>61484.765251</v>
       </c>
       <c r="E68">
-        <v>1372.597604326667</v>
+        <v>614.84765251</v>
       </c>
       <c r="F68">
-        <v>686.2988021633333</v>
+        <v>614.84765251</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2396,22 +2441,22 @@
         <v>7</v>
       </c>
       <c r="B69">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69">
-        <v>43945.77897033334</v>
+        <v>214161.686921</v>
       </c>
       <c r="E69">
-        <v>875.6539712733336</v>
+        <v>2141.61686921</v>
       </c>
       <c r="F69">
-        <v>437.8269856366668</v>
+        <v>2141.61686921</v>
       </c>
       <c r="G69">
-        <v>4.8924122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2419,19 +2464,19 @@
         <v>7</v>
       </c>
       <c r="B70">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C70" t="s">
         <v>76</v>
       </c>
       <c r="D70">
-        <v>70443.20889200001</v>
+        <v>14011156.566029</v>
       </c>
       <c r="E70">
-        <v>1408.86417784</v>
+        <v>140111.56566029</v>
       </c>
       <c r="F70">
-        <v>704.4320889200002</v>
+        <v>140111.56566029</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -2442,19 +2487,19 @@
         <v>7</v>
       </c>
       <c r="B71">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C71" t="s">
         <v>77</v>
       </c>
       <c r="D71">
-        <v>19434.166616</v>
+        <v>168177.185344</v>
       </c>
       <c r="E71">
-        <v>388.68333232</v>
+        <v>1681.77185344</v>
       </c>
       <c r="F71">
-        <v>194.34166616</v>
+        <v>1681.77185344</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2465,19 +2510,19 @@
         <v>7</v>
       </c>
       <c r="B72">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s">
         <v>78</v>
       </c>
       <c r="D72">
-        <v>6738.984189333333</v>
+        <v>19505.125724</v>
       </c>
       <c r="E72">
-        <v>134.7796837866667</v>
+        <v>195.05125724</v>
       </c>
       <c r="F72">
-        <v>67.38984189333334</v>
+        <v>195.05125724</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2488,19 +2533,19 @@
         <v>7</v>
       </c>
       <c r="B73">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C73" t="s">
         <v>79</v>
       </c>
       <c r="D73">
-        <v>69342.41614699998</v>
+        <v>173426.932224</v>
       </c>
       <c r="E73">
-        <v>1386.84832294</v>
+        <v>1734.26932224</v>
       </c>
       <c r="F73">
-        <v>693.4241614699999</v>
+        <v>1734.26932224</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2511,19 +2556,19 @@
         <v>7</v>
       </c>
       <c r="B74">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
         <v>80</v>
       </c>
       <c r="D74">
-        <v>20257.72266966667</v>
+        <v>81916.316895</v>
       </c>
       <c r="E74">
-        <v>405.1544533933334</v>
+        <v>819.16316895</v>
       </c>
       <c r="F74">
-        <v>202.5772266966667</v>
+        <v>819.16316895</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2534,22 +2579,22 @@
         <v>7</v>
       </c>
       <c r="B75">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C75" t="s">
         <v>81</v>
       </c>
       <c r="D75">
-        <v>56063.28041800002</v>
+        <v>42449.607676</v>
       </c>
       <c r="E75">
-        <v>1092.563456786667</v>
+        <v>424.49607676</v>
       </c>
       <c r="F75">
-        <v>546.2817283933334</v>
+        <v>424.49607676</v>
       </c>
       <c r="G75">
-        <v>43.05322735999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2557,22 +2602,22 @@
         <v>7</v>
       </c>
       <c r="B76">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C76" t="s">
         <v>82</v>
       </c>
       <c r="D76">
-        <v>285704.3278333335</v>
+        <v>75282.721297</v>
       </c>
       <c r="E76">
-        <v>4575.321166206665</v>
+        <v>752.82721297</v>
       </c>
       <c r="F76">
-        <v>2287.660583103333</v>
+        <v>752.82721297</v>
       </c>
       <c r="G76">
-        <v>1708.14808569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2580,19 +2625,19 @@
         <v>7</v>
       </c>
       <c r="B77">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C77" t="s">
         <v>83</v>
       </c>
       <c r="D77">
-        <v>177829.1477526667</v>
+        <v>17903.180904</v>
       </c>
       <c r="E77">
-        <v>3556.582955053333</v>
+        <v>179.03180904</v>
       </c>
       <c r="F77">
-        <v>1778.291477526667</v>
+        <v>179.03180904</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2603,22 +2648,22 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C78" t="s">
         <v>84</v>
       </c>
       <c r="D78">
-        <v>343575.2918360002</v>
+        <v>32300.418717</v>
       </c>
       <c r="E78">
-        <v>2361.19102954</v>
+        <v>323.00418717</v>
       </c>
       <c r="F78">
-        <v>1180.59551477</v>
+        <v>323.00418717</v>
       </c>
       <c r="G78">
-        <v>6765.47221077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2626,19 +2671,19 @@
         <v>7</v>
       </c>
       <c r="B79">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C79" t="s">
         <v>85</v>
       </c>
       <c r="D79">
-        <v>7045.073568000001</v>
+        <v>9387.782655999999</v>
       </c>
       <c r="E79">
-        <v>140.90147136</v>
+        <v>93.87782656</v>
       </c>
       <c r="F79">
-        <v>70.45073568000001</v>
+        <v>93.87782656</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2649,22 +2694,22 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C80" t="s">
         <v>86</v>
       </c>
       <c r="D80">
-        <v>55647.425381</v>
+        <v>35279.457066</v>
       </c>
       <c r="E80">
-        <v>1078.17474706</v>
+        <v>352.79457066</v>
       </c>
       <c r="F80">
-        <v>539.08737353</v>
+        <v>352.79457066</v>
       </c>
       <c r="G80">
-        <v>52.16064084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2672,22 +2717,22 @@
         <v>7</v>
       </c>
       <c r="B81">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C81" t="s">
         <v>87</v>
       </c>
       <c r="D81">
-        <v>503371.5100053333</v>
+        <v>54455.508583</v>
       </c>
       <c r="E81">
-        <v>7255.020774613334</v>
+        <v>544.5550858300001</v>
       </c>
       <c r="F81">
-        <v>3627.510387306667</v>
+        <v>544.5550858300001</v>
       </c>
       <c r="G81">
-        <v>4218.61413824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2695,22 +2740,22 @@
         <v>7</v>
       </c>
       <c r="B82">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C82" t="s">
         <v>88</v>
       </c>
       <c r="D82">
-        <v>-17316.63025866666</v>
+        <v>32674.849193</v>
       </c>
       <c r="E82">
-        <v>1945.348537186666</v>
+        <v>326.74849193</v>
       </c>
       <c r="F82">
-        <v>972.6742685933332</v>
+        <v>326.74849193</v>
       </c>
       <c r="G82">
-        <v>-3437.52171354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2718,19 +2763,19 @@
         <v>7</v>
       </c>
       <c r="B83">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="D83">
-        <v>66831.60511666667</v>
+        <v>40176.004064</v>
       </c>
       <c r="E83">
-        <v>1336.632102333333</v>
+        <v>401.7600406400001</v>
       </c>
       <c r="F83">
-        <v>668.3160511666667</v>
+        <v>401.7600406400001</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2741,19 +2786,19 @@
         <v>7</v>
       </c>
       <c r="B84">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C84" t="s">
         <v>90</v>
       </c>
       <c r="D84">
-        <v>60458.92461</v>
+        <v>45891.858985</v>
       </c>
       <c r="E84">
-        <v>1209.1784922</v>
+        <v>458.91858985</v>
       </c>
       <c r="F84">
-        <v>604.5892461000001</v>
+        <v>458.91858985</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2764,22 +2809,22 @@
         <v>7</v>
       </c>
       <c r="B85">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C85" t="s">
         <v>91</v>
       </c>
       <c r="D85">
-        <v>98426.55221133334</v>
+        <v>79390.84123599999</v>
       </c>
       <c r="E85">
-        <v>1929.467014506667</v>
+        <v>793.9084123599999</v>
       </c>
       <c r="F85">
-        <v>964.7335072533333</v>
+        <v>793.9084123599999</v>
       </c>
       <c r="G85">
-        <v>58.59604458000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2787,22 +2832,22 @@
         <v>7</v>
       </c>
       <c r="B86">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C86" t="s">
         <v>92</v>
       </c>
       <c r="D86">
-        <v>579423.4304220001</v>
+        <v>368.640314</v>
       </c>
       <c r="E86">
-        <v>11438.72316118</v>
+        <v>3.68640314</v>
       </c>
       <c r="F86">
-        <v>5719.361580589998</v>
+        <v>3.68640314</v>
       </c>
       <c r="G86">
-        <v>224.61817089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2810,22 +2855,22 @@
         <v>7</v>
       </c>
       <c r="B87">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C87" t="s">
         <v>93</v>
       </c>
       <c r="D87">
-        <v>66339.85496733332</v>
+        <v>96602.09778099999</v>
       </c>
       <c r="E87">
-        <v>1324.07491102</v>
+        <v>966.02097781</v>
       </c>
       <c r="F87">
-        <v>662.0374555100001</v>
+        <v>966.02097781</v>
       </c>
       <c r="G87">
-        <v>4.08328249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2833,22 +2878,22 @@
         <v>7</v>
       </c>
       <c r="B88">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
         <v>94</v>
       </c>
       <c r="D88">
-        <v>44986.35741133333</v>
+        <v>16781.81953</v>
       </c>
       <c r="E88">
-        <v>874.6127656000001</v>
+        <v>167.8181953</v>
       </c>
       <c r="F88">
-        <v>437.3063828000001</v>
+        <v>167.8181953</v>
       </c>
       <c r="G88">
-        <v>37.67157393999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2856,22 +2901,22 @@
         <v>7</v>
       </c>
       <c r="B89">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C89" t="s">
         <v>95</v>
       </c>
       <c r="D89">
-        <v>198566.7031573333</v>
+        <v>41787.599154</v>
       </c>
       <c r="E89">
-        <v>3962.051024613334</v>
+        <v>417.87599154</v>
       </c>
       <c r="F89">
-        <v>1981.025512306667</v>
+        <v>417.87599154</v>
       </c>
       <c r="G89">
-        <v>13.9245578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2879,19 +2924,19 @@
         <v>7</v>
       </c>
       <c r="B90">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C90" t="s">
         <v>96</v>
       </c>
       <c r="D90">
-        <v>132667.165288</v>
+        <v>11395.038816</v>
       </c>
       <c r="E90">
-        <v>2653.34330576</v>
+        <v>113.95038816</v>
       </c>
       <c r="F90">
-        <v>1326.67165288</v>
+        <v>113.95038816</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2902,19 +2947,19 @@
         <v>7</v>
       </c>
       <c r="B91">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C91" t="s">
         <v>97</v>
       </c>
       <c r="D91">
-        <v>56960.84988699999</v>
+        <v>141675.61387</v>
       </c>
       <c r="E91">
-        <v>1139.21699774</v>
+        <v>1416.7561387</v>
       </c>
       <c r="F91">
-        <v>569.6084988700002</v>
+        <v>1416.7561387</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -2925,22 +2970,22 @@
         <v>7</v>
       </c>
       <c r="B92">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
         <v>98</v>
       </c>
       <c r="D92">
-        <v>30678.56065566667</v>
+        <v>106829.453927</v>
       </c>
       <c r="E92">
-        <v>609.8329084066667</v>
+        <v>1068.29453927</v>
       </c>
       <c r="F92">
-        <v>304.9164542033333</v>
+        <v>1068.29453927</v>
       </c>
       <c r="G92">
-        <v>5.607457060000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2948,19 +2993,19 @@
         <v>7</v>
       </c>
       <c r="B93">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C93" t="s">
         <v>99</v>
       </c>
       <c r="D93">
-        <v>117971.7389503334</v>
+        <v>88561.49281699999</v>
       </c>
       <c r="E93">
-        <v>2359.434779006666</v>
+        <v>885.61492817</v>
       </c>
       <c r="F93">
-        <v>1179.717389503333</v>
+        <v>885.61492817</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -2971,22 +3016,22 @@
         <v>7</v>
       </c>
       <c r="B94">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C94" t="s">
         <v>100</v>
       </c>
       <c r="D94">
-        <v>89205.60967900002</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>1730.9730703</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>865.48653515</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>79.70868492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2994,19 +3039,19 @@
         <v>7</v>
       </c>
       <c r="B95">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C95" t="s">
         <v>101</v>
       </c>
       <c r="D95">
-        <v>56168.65545000001</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>1123.373109</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>561.6865545000002</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3017,22 +3062,22 @@
         <v>7</v>
       </c>
       <c r="B96">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C96" t="s">
         <v>102</v>
       </c>
       <c r="D96">
-        <v>638139.2763776665</v>
+        <v>107522.343313</v>
       </c>
       <c r="E96">
-        <v>10483.84974620667</v>
+        <v>1075.22343313</v>
       </c>
       <c r="F96">
-        <v>5241.924873103336</v>
+        <v>1075.22343313</v>
       </c>
       <c r="G96">
-        <v>3418.403672019999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3040,22 +3085,22 @@
         <v>7</v>
       </c>
       <c r="B97">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C97" t="s">
         <v>103</v>
       </c>
       <c r="D97">
-        <v>129333.4254363333</v>
+        <v>50219.040053</v>
       </c>
       <c r="E97">
-        <v>2581.286855306666</v>
+        <v>502.19040053</v>
       </c>
       <c r="F97">
-        <v>1290.643427653333</v>
+        <v>502.19040053</v>
       </c>
       <c r="G97">
-        <v>8.072480130000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3063,22 +3108,22 @@
         <v>7</v>
       </c>
       <c r="B98">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C98" t="s">
         <v>104</v>
       </c>
       <c r="D98">
-        <v>-45527.03168266675</v>
+        <v>14774.56337</v>
       </c>
       <c r="E98">
-        <v>3716.916084099999</v>
+        <v>147.7456337</v>
       </c>
       <c r="F98">
-        <v>1858.45804205</v>
+        <v>147.7456337</v>
       </c>
       <c r="G98">
-        <v>-6941.18507663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3086,22 +3131,22 @@
         <v>7</v>
       </c>
       <c r="B99">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C99" t="s">
         <v>105</v>
       </c>
       <c r="D99">
-        <v>60378.011639</v>
+        <v>142078.030129</v>
       </c>
       <c r="E99">
-        <v>1184.841877666667</v>
+        <v>1420.78030129</v>
       </c>
       <c r="F99">
-        <v>592.4209388333334</v>
+        <v>1420.78030129</v>
       </c>
       <c r="G99">
-        <v>34.07753267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3109,19 +3154,19 @@
         <v>7</v>
       </c>
       <c r="B100">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C100" t="s">
         <v>106</v>
       </c>
       <c r="D100">
-        <v>59868.69898433334</v>
+        <v>12218.206847</v>
       </c>
       <c r="E100">
-        <v>1197.373979686667</v>
+        <v>122.18206847</v>
       </c>
       <c r="F100">
-        <v>598.6869898433333</v>
+        <v>122.18206847</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3132,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="B101">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C101" t="s">
         <v>107</v>
       </c>
       <c r="D101">
-        <v>95975.95548500001</v>
+        <v>188308.613591</v>
       </c>
       <c r="E101">
-        <v>1919.5191097</v>
+        <v>1883.08613591</v>
       </c>
       <c r="F101">
-        <v>959.7595548500001</v>
+        <v>1883.08613591</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3155,22 +3200,22 @@
         <v>7</v>
       </c>
       <c r="B102">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C102" t="s">
         <v>108</v>
       </c>
       <c r="D102">
-        <v>287098.038078</v>
+        <v>148979.903233</v>
       </c>
       <c r="E102">
-        <v>5707.086643826666</v>
+        <v>1489.79903233</v>
       </c>
       <c r="F102">
-        <v>2853.543321913333</v>
+        <v>1489.79903233</v>
       </c>
       <c r="G102">
-        <v>52.3111766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3178,22 +3223,22 @@
         <v>7</v>
       </c>
       <c r="B103">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C103" t="s">
         <v>109</v>
       </c>
       <c r="D103">
-        <v>157554.4898099999</v>
+        <v>53740.423576</v>
       </c>
       <c r="E103">
-        <v>3145.758321366667</v>
+        <v>537.40423576</v>
       </c>
       <c r="F103">
-        <v>1572.879160683333</v>
+        <v>537.40423576</v>
       </c>
       <c r="G103">
-        <v>7.99721225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3201,22 +3246,22 @@
         <v>7</v>
       </c>
       <c r="B104">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s">
         <v>110</v>
       </c>
       <c r="D104">
-        <v>119796.357808</v>
+        <v>181554.389618</v>
       </c>
       <c r="E104">
-        <v>2393.192423186667</v>
+        <v>1815.54389618</v>
       </c>
       <c r="F104">
-        <v>1196.596211593333</v>
+        <v>1815.54389618</v>
       </c>
       <c r="G104">
-        <v>4.10209946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3224,22 +3269,22 @@
         <v>7</v>
       </c>
       <c r="B105">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C105" t="s">
         <v>111</v>
       </c>
       <c r="D105">
-        <v>380572.5910176668</v>
+        <v>148713.555781</v>
       </c>
       <c r="E105">
-        <v>7597.351637499998</v>
+        <v>1487.13555781</v>
       </c>
       <c r="F105">
-        <v>3798.675818749999</v>
+        <v>1487.13555781</v>
       </c>
       <c r="G105">
-        <v>21.15027428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3247,22 +3292,22 @@
         <v>7</v>
       </c>
       <c r="B106">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C106" t="s">
         <v>112</v>
       </c>
       <c r="D106">
-        <v>131092.184899</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>2586.216901446667</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1293.108450723333</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>53.44019479999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3270,19 +3315,19 @@
         <v>7</v>
       </c>
       <c r="B107">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
         <v>113</v>
       </c>
       <c r="D107">
-        <v>19078.525883</v>
+        <v>23069.935462</v>
       </c>
       <c r="E107">
-        <v>381.57051766</v>
+        <v>230.69935462</v>
       </c>
       <c r="F107">
-        <v>190.78525883</v>
+        <v>230.69935462</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3293,22 +3338,22 @@
         <v>7</v>
       </c>
       <c r="B108">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
         <v>114</v>
       </c>
       <c r="D108">
-        <v>254463.767007</v>
+        <v>74499.11937299999</v>
       </c>
       <c r="E108">
-        <v>5003.808662399998</v>
+        <v>744.9911937300001</v>
       </c>
       <c r="F108">
-        <v>2501.904331199999</v>
+        <v>744.9911937300001</v>
       </c>
       <c r="G108">
-        <v>128.20001661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3316,22 +3361,22 @@
         <v>7</v>
       </c>
       <c r="B109">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C109" t="s">
         <v>115</v>
       </c>
       <c r="D109">
-        <v>50559.316693</v>
+        <v>72750.49044899999</v>
       </c>
       <c r="E109">
-        <v>983.8766380666666</v>
+        <v>727.5049044899999</v>
       </c>
       <c r="F109">
-        <v>491.9383190333333</v>
+        <v>727.5049044899999</v>
       </c>
       <c r="G109">
-        <v>40.96454369000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3339,19 +3384,19 @@
         <v>7</v>
       </c>
       <c r="B110">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C110" t="s">
         <v>116</v>
       </c>
       <c r="D110">
-        <v>40851.64187</v>
+        <v>185036.207034</v>
       </c>
       <c r="E110">
-        <v>817.0328374000001</v>
+        <v>1850.36207034</v>
       </c>
       <c r="F110">
-        <v>408.5164187</v>
+        <v>1850.36207034</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3362,22 +3407,22 @@
         <v>7</v>
       </c>
       <c r="B111">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C111" t="s">
         <v>117</v>
       </c>
       <c r="D111">
-        <v>548982.5908206669</v>
+        <v>170725.821651</v>
       </c>
       <c r="E111">
-        <v>10977.38123536667</v>
+        <v>1707.25821651</v>
       </c>
       <c r="F111">
-        <v>5488.690617683335</v>
+        <v>1707.25821651</v>
       </c>
       <c r="G111">
-        <v>3.40587157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3385,19 +3430,19 @@
         <v>7</v>
       </c>
       <c r="B112">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C112" t="s">
         <v>118</v>
       </c>
       <c r="D112">
-        <v>42489.34549233333</v>
+        <v>221153.307536</v>
       </c>
       <c r="E112">
-        <v>849.7869098466667</v>
+        <v>2211.53307536</v>
       </c>
       <c r="F112">
-        <v>424.8934549233334</v>
+        <v>2211.53307536</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3408,22 +3453,22 @@
         <v>7</v>
       </c>
       <c r="B113">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C113" t="s">
         <v>119</v>
       </c>
       <c r="D113">
-        <v>149660.1436626667</v>
+        <v>95933.33407</v>
       </c>
       <c r="E113">
-        <v>2916.228921306666</v>
+        <v>959.3333407</v>
       </c>
       <c r="F113">
-        <v>1458.114460653333</v>
+        <v>959.3333407</v>
       </c>
       <c r="G113">
-        <v>115.46092792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3431,22 +3476,22 @@
         <v>7</v>
       </c>
       <c r="B114">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C114" t="s">
         <v>120</v>
       </c>
       <c r="D114">
-        <v>76914.364875</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>1536.305243326666</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>768.1526216633332</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>2.97308126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3454,22 +3499,22 @@
         <v>7</v>
       </c>
       <c r="B115">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C115" t="s">
         <v>121</v>
       </c>
       <c r="D115">
-        <v>63356.11075766668</v>
+        <v>75640.746314</v>
       </c>
       <c r="E115">
-        <v>1133.822799673333</v>
+        <v>756.4074631400001</v>
       </c>
       <c r="F115">
-        <v>566.9113998366666</v>
+        <v>756.4074631400001</v>
       </c>
       <c r="G115">
-        <v>199.94912322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3477,19 +3522,19 @@
         <v>7</v>
       </c>
       <c r="B116">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C116" t="s">
         <v>122</v>
       </c>
       <c r="D116">
-        <v>18287.58591066666</v>
+        <v>92637.766865</v>
       </c>
       <c r="E116">
-        <v>365.7517182133333</v>
+        <v>926.37766865</v>
       </c>
       <c r="F116">
-        <v>182.8758591066667</v>
+        <v>926.37766865</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3500,19 +3545,19 @@
         <v>7</v>
       </c>
       <c r="B117">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C117" t="s">
         <v>123</v>
       </c>
       <c r="D117">
-        <v>17445.84011933333</v>
+        <v>5659.883355</v>
       </c>
       <c r="E117">
-        <v>348.9168023866667</v>
+        <v>56.59883355</v>
       </c>
       <c r="F117">
-        <v>174.4584011933333</v>
+        <v>56.59883355</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3523,19 +3568,19 @@
         <v>7</v>
       </c>
       <c r="B118">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C118" t="s">
         <v>124</v>
       </c>
       <c r="D118">
-        <v>299827.718283</v>
+        <v>172444.534738</v>
       </c>
       <c r="E118">
-        <v>5996.55436566</v>
+        <v>1724.44534738</v>
       </c>
       <c r="F118">
-        <v>2998.27718283</v>
+        <v>1724.44534738</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3546,22 +3591,22 @@
         <v>7</v>
       </c>
       <c r="B119">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C119" t="s">
         <v>125</v>
       </c>
       <c r="D119">
-        <v>412581.5114523333</v>
+        <v>265161.433817</v>
       </c>
       <c r="E119">
-        <v>7755.865792780002</v>
+        <v>2651.614338169999</v>
       </c>
       <c r="F119">
-        <v>3877.932896390001</v>
+        <v>2651.614338169999</v>
       </c>
       <c r="G119">
-        <v>743.6466544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3569,19 +3614,19 @@
         <v>7</v>
       </c>
       <c r="B120">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C120" t="s">
         <v>126</v>
       </c>
       <c r="D120">
-        <v>782.7859520000001</v>
+        <v>142207.343747</v>
       </c>
       <c r="E120">
-        <v>15.65571904</v>
+        <v>1422.07343747</v>
       </c>
       <c r="F120">
-        <v>7.827859520000001</v>
+        <v>1422.07343747</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3592,22 +3637,22 @@
         <v>7</v>
       </c>
       <c r="B121">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C121" t="s">
         <v>127</v>
       </c>
       <c r="D121">
-        <v>130952.3120886667</v>
+        <v>281023.582616</v>
       </c>
       <c r="E121">
-        <v>2600.818870166666</v>
+        <v>2810.23582616</v>
       </c>
       <c r="F121">
-        <v>1300.409435083333</v>
+        <v>2810.23582616</v>
       </c>
       <c r="G121">
-        <v>27.34105741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3615,19 +3660,19 @@
         <v>7</v>
       </c>
       <c r="B122">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C122" t="s">
         <v>128</v>
       </c>
       <c r="D122">
-        <v>26230.85618</v>
+        <v>86133.484885</v>
       </c>
       <c r="E122">
-        <v>524.6171236</v>
+        <v>861.33484885</v>
       </c>
       <c r="F122">
-        <v>262.3085618</v>
+        <v>861.33484885</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3638,19 +3683,19 @@
         <v>7</v>
       </c>
       <c r="B123">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C123" t="s">
         <v>129</v>
       </c>
       <c r="D123">
-        <v>4295.287018666667</v>
+        <v>63645.460704</v>
       </c>
       <c r="E123">
-        <v>85.90574037333334</v>
+        <v>636.45460704</v>
       </c>
       <c r="F123">
-        <v>42.95287018666667</v>
+        <v>636.45460704</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -3661,22 +3706,22 @@
         <v>7</v>
       </c>
       <c r="B124">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C124" t="s">
         <v>130</v>
       </c>
       <c r="D124">
-        <v>10712.50102100001</v>
+        <v>103983.589304</v>
       </c>
       <c r="E124">
-        <v>739.5947335266667</v>
+        <v>1039.83589304</v>
       </c>
       <c r="F124">
-        <v>369.7973667633333</v>
+        <v>1039.83589304</v>
       </c>
       <c r="G124">
-        <v>-788.0170696599997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3684,22 +3729,22 @@
         <v>7</v>
       </c>
       <c r="B125">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C125" t="s">
         <v>131</v>
       </c>
       <c r="D125">
-        <v>25397.264409</v>
+        <v>31393.293337</v>
       </c>
       <c r="E125">
-        <v>505.49908208</v>
+        <v>313.9329333699999</v>
       </c>
       <c r="F125">
-        <v>252.74954104</v>
+        <v>313.9329333699999</v>
       </c>
       <c r="G125">
-        <v>3.66930915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3707,19 +3752,19 @@
         <v>7</v>
       </c>
       <c r="B126">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C126" t="s">
         <v>132</v>
       </c>
       <c r="D126">
-        <v>60478.99604466667</v>
+        <v>115947.029023</v>
       </c>
       <c r="E126">
-        <v>1209.579920893334</v>
+        <v>1159.47029023</v>
       </c>
       <c r="F126">
-        <v>604.7899604466668</v>
+        <v>1159.47029023</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -3730,22 +3775,22 @@
         <v>7</v>
       </c>
       <c r="B127">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C127" t="s">
         <v>133</v>
       </c>
       <c r="D127">
-        <v>204776.3032573334</v>
+        <v>44403.787351</v>
       </c>
       <c r="E127">
-        <v>4086.995705413332</v>
+        <v>444.03787351</v>
       </c>
       <c r="F127">
-        <v>2043.497852706666</v>
+        <v>444.03787351</v>
       </c>
       <c r="G127">
-        <v>12.7955396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3753,19 +3798,19 @@
         <v>7</v>
       </c>
       <c r="B128">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C128" t="s">
         <v>134</v>
       </c>
       <c r="D128">
-        <v>22537.084969</v>
+        <v>80797.85060199999</v>
       </c>
       <c r="E128">
-        <v>450.7416993800001</v>
+        <v>807.9785060199999</v>
       </c>
       <c r="F128">
-        <v>225.37084969</v>
+        <v>807.9785060199999</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3776,19 +3821,19 @@
         <v>7</v>
       </c>
       <c r="B129">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C129" t="s">
         <v>135</v>
       </c>
       <c r="D129">
-        <v>16994.23283933333</v>
+        <v>1883.732704</v>
       </c>
       <c r="E129">
-        <v>339.8846567866667</v>
+        <v>18.83732704</v>
       </c>
       <c r="F129">
-        <v>169.9423283933334</v>
+        <v>18.83732704</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -3799,22 +3844,22 @@
         <v>7</v>
       </c>
       <c r="B130">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C130" t="s">
         <v>136</v>
       </c>
       <c r="D130">
-        <v>69633.45194966666</v>
+        <v>23051.599949</v>
       </c>
       <c r="E130">
-        <v>1389.620689853333</v>
+        <v>230.51599949</v>
       </c>
       <c r="F130">
-        <v>694.8103449266665</v>
+        <v>230.51599949</v>
       </c>
       <c r="G130">
-        <v>4.57252371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3822,22 +3867,22 @@
         <v>7</v>
       </c>
       <c r="B131">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C131" t="s">
         <v>137</v>
       </c>
       <c r="D131">
-        <v>105246.4493716667</v>
+        <v>47082.702303</v>
       </c>
       <c r="E131">
-        <v>2099.647691186667</v>
+        <v>470.82702303</v>
       </c>
       <c r="F131">
-        <v>1049.823845593334</v>
+        <v>470.82702303</v>
       </c>
       <c r="G131">
-        <v>7.92194437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3845,19 +3890,19 @@
         <v>7</v>
       </c>
       <c r="B132">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C132" t="s">
         <v>138</v>
       </c>
       <c r="D132">
-        <v>142133.982895</v>
+        <v>69422.112326</v>
       </c>
       <c r="E132">
-        <v>2842.6796579</v>
+        <v>694.22112326</v>
       </c>
       <c r="F132">
-        <v>1421.33982895</v>
+        <v>694.22112326</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -3868,19 +3913,19 @@
         <v>7</v>
       </c>
       <c r="B133">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C133" t="s">
         <v>139</v>
       </c>
       <c r="D133">
-        <v>24803.90262166667</v>
+        <v>74989.353089</v>
       </c>
       <c r="E133">
-        <v>496.0780524333333</v>
+        <v>749.89353089</v>
       </c>
       <c r="F133">
-        <v>248.0390262166667</v>
+        <v>749.89353089</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -3891,22 +3936,22 @@
         <v>7</v>
       </c>
       <c r="B134">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C134" t="s">
         <v>140</v>
       </c>
       <c r="D134">
-        <v>27778.86557866667</v>
+        <v>99982.58736199999</v>
       </c>
       <c r="E134">
-        <v>527.4271244533334</v>
+        <v>999.8258736199999</v>
       </c>
       <c r="F134">
-        <v>263.7135622266667</v>
+        <v>999.8258736199999</v>
       </c>
       <c r="G134">
-        <v>42.22528068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3914,22 +3959,22 @@
         <v>7</v>
       </c>
       <c r="B135">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C135" t="s">
         <v>141</v>
       </c>
       <c r="D135">
-        <v>185081.2079906667</v>
+        <v>60554.479223</v>
       </c>
       <c r="E135">
-        <v>2902.329452799999</v>
+        <v>605.54479223</v>
       </c>
       <c r="F135">
-        <v>1451.1647264</v>
+        <v>605.54479223</v>
       </c>
       <c r="G135">
-        <v>1198.94206052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3937,22 +3982,22 @@
         <v>7</v>
       </c>
       <c r="B136">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C136" t="s">
         <v>142</v>
       </c>
       <c r="D136">
-        <v>181544.244863</v>
+        <v>29624.398846</v>
       </c>
       <c r="E136">
-        <v>3618.980027573332</v>
+        <v>296.24398846</v>
       </c>
       <c r="F136">
-        <v>1809.490013786666</v>
+        <v>296.24398846</v>
       </c>
       <c r="G136">
-        <v>17.85730453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3960,22 +4005,22 @@
         <v>7</v>
       </c>
       <c r="B137">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C137" t="s">
         <v>143</v>
       </c>
       <c r="D137">
-        <v>61370.29319033333</v>
+        <v>228141.068043</v>
       </c>
       <c r="E137">
-        <v>829.6276626533335</v>
+        <v>2281.41068043</v>
       </c>
       <c r="F137">
-        <v>414.8138313266667</v>
+        <v>2281.41068043</v>
       </c>
       <c r="G137">
-        <v>596.66730173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3983,22 +4028,22 @@
         <v>7</v>
       </c>
       <c r="B138">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
         <v>144</v>
       </c>
       <c r="D138">
-        <v>121671.1552523333</v>
+        <v>58904.283053</v>
       </c>
       <c r="E138">
-        <v>2431.75466704</v>
+        <v>589.0428305300001</v>
       </c>
       <c r="F138">
-        <v>1215.87733352</v>
+        <v>589.0428305300001</v>
       </c>
       <c r="G138">
-        <v>2.50265701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4006,22 +4051,22 @@
         <v>7</v>
       </c>
       <c r="B139">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C139" t="s">
         <v>145</v>
       </c>
       <c r="D139">
-        <v>212804.877124</v>
+        <v>126946.406769</v>
       </c>
       <c r="E139">
-        <v>4253.111916573334</v>
+        <v>1269.46406769</v>
       </c>
       <c r="F139">
-        <v>2126.555958286667</v>
+        <v>1269.46406769</v>
       </c>
       <c r="G139">
-        <v>4.47843886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4029,19 +4074,19 @@
         <v>7</v>
       </c>
       <c r="B140">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C140" t="s">
         <v>146</v>
       </c>
       <c r="D140">
-        <v>81373.98676499998</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>1627.4797353</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>813.73986765</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4052,22 +4097,22 @@
         <v>7</v>
       </c>
       <c r="B141">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C141" t="s">
         <v>147</v>
       </c>
       <c r="D141">
-        <v>102868.611596</v>
+        <v>50575.13501599999</v>
       </c>
       <c r="E141">
-        <v>2053.621382566667</v>
+        <v>505.75135016</v>
       </c>
       <c r="F141">
-        <v>1026.810691283333</v>
+        <v>505.75135016</v>
       </c>
       <c r="G141">
-        <v>5.62627403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4075,19 +4120,19 @@
         <v>7</v>
       </c>
       <c r="B142">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
       </c>
       <c r="D142">
-        <v>31906.68156433333</v>
+        <v>33878.237862</v>
       </c>
       <c r="E142">
-        <v>638.1336312866667</v>
+        <v>338.78237862</v>
       </c>
       <c r="F142">
-        <v>319.0668156433334</v>
+        <v>338.78237862</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4098,22 +4143,367 @@
         <v>7</v>
       </c>
       <c r="B143">
-        <v>854</v>
+        <v>431</v>
       </c>
       <c r="C143" t="s">
         <v>149</v>
       </c>
       <c r="D143">
-        <v>24059.377842</v>
+        <v>114773.556191</v>
       </c>
       <c r="E143">
-        <v>466.0838022533334</v>
+        <v>1147.73556191</v>
       </c>
       <c r="F143">
-        <v>233.0419011266667</v>
+        <v>1147.73556191</v>
       </c>
       <c r="G143">
-        <v>22.65563188</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>431</v>
+      </c>
+      <c r="C144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144">
+        <v>44089.188549</v>
+      </c>
+      <c r="E144">
+        <v>440.89188549</v>
+      </c>
+      <c r="F144">
+        <v>440.89188549</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>431</v>
+      </c>
+      <c r="C145" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>431</v>
+      </c>
+      <c r="C146" t="s">
+        <v>152</v>
+      </c>
+      <c r="D146">
+        <v>187696.786473</v>
+      </c>
+      <c r="E146">
+        <v>1876.96786473</v>
+      </c>
+      <c r="F146">
+        <v>1876.96786473</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147">
+        <v>431</v>
+      </c>
+      <c r="C147" t="s">
+        <v>153</v>
+      </c>
+      <c r="D147">
+        <v>2098.933725</v>
+      </c>
+      <c r="E147">
+        <v>20.98933725</v>
+      </c>
+      <c r="F147">
+        <v>20.98933725</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="B148">
+        <v>431</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148">
+        <v>12279.003548</v>
+      </c>
+      <c r="E148">
+        <v>122.79003548</v>
+      </c>
+      <c r="F148">
+        <v>122.79003548</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149">
+        <v>431</v>
+      </c>
+      <c r="C149" t="s">
+        <v>155</v>
+      </c>
+      <c r="D149">
+        <v>8525.048518</v>
+      </c>
+      <c r="E149">
+        <v>85.25048518</v>
+      </c>
+      <c r="F149">
+        <v>85.25048518</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150">
+        <v>431</v>
+      </c>
+      <c r="C150" t="s">
+        <v>156</v>
+      </c>
+      <c r="D150">
+        <v>89705.049812</v>
+      </c>
+      <c r="E150">
+        <v>897.05049812</v>
+      </c>
+      <c r="F150">
+        <v>897.05049812</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>431</v>
+      </c>
+      <c r="C151" t="s">
+        <v>157</v>
+      </c>
+      <c r="D151">
+        <v>129530.749075</v>
+      </c>
+      <c r="E151">
+        <v>1295.30749075</v>
+      </c>
+      <c r="F151">
+        <v>1295.30749075</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152">
+        <v>431</v>
+      </c>
+      <c r="C152" t="s">
+        <v>158</v>
+      </c>
+      <c r="D152">
+        <v>69664.334103</v>
+      </c>
+      <c r="E152">
+        <v>696.64334103</v>
+      </c>
+      <c r="F152">
+        <v>696.64334103</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>431</v>
+      </c>
+      <c r="C153" t="s">
+        <v>159</v>
+      </c>
+      <c r="D153">
+        <v>47809.367634</v>
+      </c>
+      <c r="E153">
+        <v>478.09367634</v>
+      </c>
+      <c r="F153">
+        <v>478.09367634</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154">
+        <v>431</v>
+      </c>
+      <c r="C154" t="s">
+        <v>160</v>
+      </c>
+      <c r="D154">
+        <v>101374.156296</v>
+      </c>
+      <c r="E154">
+        <v>1013.74156296</v>
+      </c>
+      <c r="F154">
+        <v>1013.74156296</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155">
+        <v>431</v>
+      </c>
+      <c r="C155" t="s">
+        <v>161</v>
+      </c>
+      <c r="D155">
+        <v>3126.68748</v>
+      </c>
+      <c r="E155">
+        <v>31.2668748</v>
+      </c>
+      <c r="F155">
+        <v>31.2668748</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>431</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156">
+        <v>108444.909125</v>
+      </c>
+      <c r="E156">
+        <v>1084.44909125</v>
+      </c>
+      <c r="F156">
+        <v>1084.44909125</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157">
+        <v>431</v>
+      </c>
+      <c r="C157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D157">
+        <v>43940.574391</v>
+      </c>
+      <c r="E157">
+        <v>439.40574391</v>
+      </c>
+      <c r="F157">
+        <v>439.40574391</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158">
+        <v>431</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+      <c r="D158">
+        <v>158515.33502</v>
+      </c>
+      <c r="E158">
+        <v>1585.1533502</v>
+      </c>
+      <c r="F158">
+        <v>1585.1533502</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
